--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1454728.022105789</v>
+        <v>1458047.568378694</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>148.8506349098462</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.7773912969451</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.09123492280403</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>153.7680905114898</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -987,16 +987,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.87778971584247</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>109.9129409668012</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,64 +1139,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>158.841334124391</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>9.336946277399546</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>13.94347069460048</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>45.16209169021802</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V12" t="n">
-        <v>120.0500723064956</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,70 +1607,70 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>8.438698031532754</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>77.51127355246938</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,52 +1856,52 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>222.8034171219148</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>191.264473050588</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2378,13 +2378,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>48.48316818328725</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>24.83923539838699</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>110.1497834296626</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,17 +2789,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8731252940988646</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2956,49 +2956,49 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>51.72215467797748</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>91.00671443664312</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>157.6032867115065</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>52.2954651048929</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>230.1165143368997</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>198.0337520153255</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>57.81343218737562</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="X41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>47.49940747082301</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3937,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,11 +3974,11 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>119.6351103649934</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>172.3055939626664</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189.1984156022267</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C2" t="n">
-        <v>189.1984156022267</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="D2" t="n">
-        <v>189.1984156022267</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E2" t="n">
-        <v>189.1984156022267</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4343,7 +4343,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4355,22 +4355,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="T2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="U2" t="n">
         <v>604.3859801240053</v>
       </c>
-      <c r="T2" t="n">
-        <v>396.792197863116</v>
-      </c>
-      <c r="U2" t="n">
-        <v>396.792197863116</v>
-      </c>
       <c r="V2" t="n">
-        <v>396.792197863116</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W2" t="n">
-        <v>396.792197863116</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X2" t="n">
-        <v>396.792197863116</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y2" t="n">
         <v>396.792197863116</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,46 +4413,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N3" t="n">
-        <v>752.1869855945927</v>
-      </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>674.34504535368</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>674.34504535368</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
-        <v>674.34504535368</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>674.34504535368</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>674.34504535368</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>674.34504535368</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
         <v>16.44142755506243</v>
@@ -4513,25 +4513,25 @@
         <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E5" t="n">
         <v>199.2900309704538</v>
       </c>
       <c r="F5" t="n">
-        <v>43.96872742349432</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="H5" t="n">
         <v>28.51141680214578</v>
@@ -4568,10 +4568,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4592,25 +4592,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>266.1954256661855</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>127.464600248801</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4650,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
         <v>16.44142755506243</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>399.9383124821396</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>384.4810018607911</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,10 +4811,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4832,16 +4832,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
         <v>614.4775954922324</v>
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4911,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>648.6540332037905</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>639.2227743377304</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4996,16 +4996,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5048,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5078,13 +5078,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>568.8593210576687</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>394.4062917765417</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5124,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>776.453103318558</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>776.453103318558</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>776.453103318558</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>568.8593210576687</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>568.8593210576687</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,7 +5282,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="C15" t="n">
-        <v>813.547440347533</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D15" t="n">
-        <v>664.6130306862817</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E15" t="n">
-        <v>505.3755756808262</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F15" t="n">
-        <v>358.8410177077111</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5361,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5382,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>155.1722529724469</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5701,10 +5701,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>728.6161971483371</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>728.6161971483371</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
         <v>712.019119383956</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="22">
@@ -5929,10 +5929,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -6008,28 +6008,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y23" t="n">
         <v>19.28114311021272</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>852.7947480059265</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>609.3459713618265</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>401.4944711562937</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6646,25 +6646,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V32" t="n">
-        <v>284.1276524520142</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>314.750110744579</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7023,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>636.6465793880363</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>636.6465793880363</v>
       </c>
       <c r="V36" t="n">
-        <v>558.1988873886792</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W36" t="n">
-        <v>314.750110744579</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X36" t="n">
-        <v>314.750110744579</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y36" t="n">
-        <v>314.750110744579</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7111,13 +7111,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
         <v>19.28114311021272</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>281.5846883638847</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>489.4361885694175</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>489.4361885694175</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>489.4361885694175</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>489.4361885694175</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X39" t="n">
-        <v>281.5846883638847</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y39" t="n">
-        <v>281.5846883638847</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7418,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7430,31 +7430,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W41" t="n">
-        <v>396.792197863116</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,13 +7491,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>639.2227743377304</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7655,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7670,28 +7670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>480.4386961837225</v>
+        <v>440.4315409844885</v>
       </c>
       <c r="C45" t="n">
-        <v>480.4386961837225</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="D45" t="n">
-        <v>480.4386961837225</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="E45" t="n">
-        <v>480.4386961837225</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F45" t="n">
-        <v>359.5951503604969</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8643249431123</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>648.6540332037905</v>
+        <v>648.0253232453778</v>
       </c>
       <c r="X45" t="n">
-        <v>648.6540332037905</v>
+        <v>648.0253232453778</v>
       </c>
       <c r="Y45" t="n">
-        <v>648.6540332037905</v>
+        <v>440.4315409844885</v>
       </c>
     </row>
     <row r="46">
@@ -7825,22 +7825,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7991,10 +7991,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8459,13 +8459,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8541,16 +8541,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>292.5201795090609</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11303,10 +11303,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11391,7 +11391,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23264,22 +23264,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,10 +23337,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>180.7792903907568</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23495,28 +23495,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,13 +23552,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117764</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>164.269800956783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,16 +23622,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>155.2893135969559</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23710,7 +23710,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,7 +23732,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23744,16 +23744,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23786,10 +23786,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23871,13 +23871,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>28.89156603900483</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,13 +23941,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,16 +24023,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>339.503732545394</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24096,25 +24096,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>41.53611409883723</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24169,13 +24169,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24266,13 +24266,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>151.9490329357426</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24285,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>124.2253308050285</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>201.1021466825878</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24579,13 +24579,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>122.6508037197627</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>50.10013888409017</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24649,13 +24649,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>111.3623189423976</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,13 +24813,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>209.4061378369947</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,19 +24965,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>297.5188140394355</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>109.1580142581785</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>48.16969849197102</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>150.4632457993081</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,16 +25233,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>147.8692635899287</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>2.684072812525613</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25351,16 +25351,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>344.4597780394191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,28 +25433,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25521,19 +25521,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2.130976679496058</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>193.881550973544</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25567,7 +25567,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,10 +25631,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6536234539903</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25685,13 +25685,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>318.0899692773254</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>64.73603676567345</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,22 +25755,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>44.92126469973746</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25825,13 +25825,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,19 +25874,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>387.6743356562363</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>25.43410202839053</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>79.38938919825318</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26065,10 +26065,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373861.5131954982</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373861.5131954981</v>
+        <v>373861.5131954982</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373861.5131954981</v>
+        <v>373861.513195498</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373861.5131954981</v>
+        <v>373861.5131954982</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354954.6941285963</v>
+        <v>354954.6941285966</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>197197.0522936645</v>
@@ -26326,7 +26326,7 @@
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641654</v>
@@ -26341,13 +26341,13 @@
         <v>207700.8406641654</v>
       </c>
       <c r="L2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="O2" t="n">
         <v>197197.0522936645</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="C4" t="n">
-        <v>289079.3271252676</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="D4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109074.9375163721</v>
+        <v>109462.5789352585</v>
       </c>
       <c r="C6" t="n">
-        <v>177948.694098062</v>
+        <v>178336.3355169484</v>
       </c>
       <c r="D6" t="n">
-        <v>177948.6940980621</v>
+        <v>178336.3355169483</v>
       </c>
       <c r="E6" t="n">
-        <v>184160.1143739974</v>
+        <v>184547.7557928838</v>
       </c>
       <c r="F6" t="n">
-        <v>184160.1143739975</v>
+        <v>184547.7557928838</v>
       </c>
       <c r="G6" t="n">
-        <v>182730.0232560894</v>
+        <v>183138.5964285327</v>
       </c>
       <c r="H6" t="n">
-        <v>192459.0662302564</v>
+        <v>192867.6394026998</v>
       </c>
       <c r="I6" t="n">
-        <v>192459.0662302565</v>
+        <v>192867.6394026998</v>
       </c>
       <c r="J6" t="n">
-        <v>138686.555340047</v>
+        <v>139095.1285124904</v>
       </c>
       <c r="K6" t="n">
-        <v>192459.0662302565</v>
+        <v>192867.6394026998</v>
       </c>
       <c r="L6" t="n">
-        <v>192459.0662302565</v>
+        <v>192867.6394026998</v>
       </c>
       <c r="M6" t="n">
-        <v>192459.0662302565</v>
+        <v>192867.6394026998</v>
       </c>
       <c r="N6" t="n">
-        <v>192459.0662302565</v>
+        <v>192867.6394026998</v>
       </c>
       <c r="O6" t="n">
-        <v>184160.1143739975</v>
+        <v>184547.7557928838</v>
       </c>
       <c r="P6" t="n">
-        <v>184160.1143739975</v>
+        <v>184547.7557928839</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>233.8832067536344</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>263.0986544447663</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>154.0734937720176</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266973</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27585,7 +27585,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>93.55107118671074</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>253.1079552302216</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>192.5827573459887</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27707,16 +27707,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>92.46572744736817</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.322503269695247</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>212.8595420456369</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>180.6334679913762</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>223.4636408720257</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>237.7515124663191</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>51.30969674795442</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34711,10 +34711,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35261,16 +35261,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,19 +35729,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38023,10 +38023,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38111,7 +38111,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1458047.568378694</v>
+        <v>1458831.714316723</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148.8506349098462</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,11 +715,11 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0201173812374</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>199.4261177940757</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,13 +992,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>109.9129409668012</v>
+        <v>19.76971678912829</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>205.5178444382804</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>204.4993614069768</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1272,10 +1274,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>13.94347069460048</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,61 +1378,61 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>45.16209169021802</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>77.51127355246938</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>222.8034171219148</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>191.264473050588</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>91.44497723232986</v>
       </c>
     </row>
     <row r="22">
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>87.86737129411912</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,16 +2447,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>24.83923539838699</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2561,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>12.162665399307</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>155.6728463193873</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2752,22 +2754,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>84.41978777916125</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,22 +2924,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>16.53524424398009</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4555638731248</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2968,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>91.00671443664312</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,11 +3265,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U35" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>105.6152911330824</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>52.2954651048929</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3442,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3585,25 +3587,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>59.00860506755218</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>57.81343218737562</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3782,28 +3784,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W41" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3831,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>51.90280359853558</v>
       </c>
       <c r="H42" t="n">
-        <v>47.49940747082301</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3937,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="44">
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>172.3055939626664</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.4380211865037</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C2" t="n">
-        <v>246.4380211865037</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D2" t="n">
-        <v>246.4380211865037</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E2" t="n">
-        <v>246.4380211865037</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F2" t="n">
-        <v>239.4925204373003</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4354,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.792197863116</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4415,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4431,25 +4433,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="F5" t="n">
-        <v>192.3445302212503</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G5" t="n">
-        <v>176.8872195999018</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4574,10 +4576,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>127.464600248801</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>415.1460457653264</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
         <v>16.44142755506243</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="F8" t="n">
-        <v>399.9383124821396</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="G8" t="n">
-        <v>384.4810018607911</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
         <v>224.0352098159517</v>
@@ -4811,10 +4813,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>246.4380211865037</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4905,22 +4907,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V9" t="n">
-        <v>238.8736563016672</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W9" t="n">
-        <v>224.7893424687375</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X9" t="n">
         <v>17.19556020784815</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4996,16 +4998,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>568.8593210576687</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>394.4062917765417</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5130,40 +5132,40 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U12" t="n">
-        <v>776.453103318558</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V12" t="n">
-        <v>776.453103318558</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W12" t="n">
-        <v>776.453103318558</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>568.8593210576687</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>568.8593210576687</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5215,16 +5217,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
         <v>16.44142755506243</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.1722529724469</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>155.1722529724469</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>155.1722529724469</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>155.1722529724469</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>415.1460457653264</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>362.7660352333362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>362.7660352333362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>362.7660352333362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>155.1722529724469</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5452,22 +5454,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
         <v>16.44142755506243</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,43 +5603,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5701,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>395.2567788952347</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W21" t="n">
-        <v>395.2567788952347</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X21" t="n">
-        <v>395.2567788952347</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.4964801302808</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5929,25 +5931,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>499.3853800778592</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>255.9366034337592</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W23" t="n">
-        <v>255.9366034337592</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X23" t="n">
-        <v>255.9366034337592</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>462.1935501069094</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>274.0360370837871</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>274.0360370837871</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X26" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>384.2867411876791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="28">
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E29" t="n">
-        <v>104.5536560184564</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F29" t="n">
-        <v>104.5536560184564</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>470.5814199598456</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>542.5454695211354</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>698.7138367828777</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>470.4902185192667</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>470.4902185192667</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0414418751666</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="34">
@@ -6883,10 +6885,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>636.6465793880363</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>636.6465793880363</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7205,10 +7207,10 @@
         <v>742.8341567219593</v>
       </c>
       <c r="U38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
         <v>262.7299197543128</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>331.7398883561897</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>331.7398883561897</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>252.1315786412141</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>193.7341723913397</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>193.7341723913397</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="40">
@@ -7351,13 +7353,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
         <v>16.44142755506243</v>
@@ -7418,43 +7420,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>670.6884303378189</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U41" t="n">
-        <v>670.6884303378189</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V41" t="n">
-        <v>670.6884303378189</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.8736563016672</v>
+        <v>244.0756638309303</v>
       </c>
       <c r="C42" t="n">
-        <v>64.42062702054022</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="D42" t="n">
-        <v>64.42062702054022</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="E42" t="n">
-        <v>64.42062702054022</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="F42" t="n">
-        <v>64.42062702054022</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="G42" t="n">
-        <v>64.42062702054022</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7497,16 +7499,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W42" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X42" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y42" t="n">
-        <v>238.8736563016672</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="43">
@@ -7585,31 +7587,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>255.5008658160403</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>255.5008658160403</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.5008658160403</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>440.4315409844885</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C45" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7758,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>648.0253232453778</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>648.0253232453778</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>440.4315409844885</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8222,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8778,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>185.4193833999402</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10202,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,10 +11147,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,13 +11387,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>180.7792903907568</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>198.7016825117764</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>155.2893135969559</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23710,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23786,10 +23788,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>188.9293852055442</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23871,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>28.89156603900483</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24020,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>41.53611409883723</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>114.2377185449745</v>
       </c>
     </row>
     <row r="22">
@@ -24169,13 +24171,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>313.5449524110543</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>151.9490329357426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>57.20184109926475</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>201.1021466825878</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>179.7131144384051</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24449,22 +24451,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>370.7373139160822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>308.7646895842778</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4824150560939</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>50.10013888409017</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24640,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>255.0550143366059</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,22 +24812,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>209.4061378369947</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>60.31742133035263</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24856,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24926,13 +24928,13 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>132.7629680684941</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>109.1580142581785</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U35" t="n">
-        <v>150.4632457993081</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>39.45392126030147</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>147.8692635899287</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25330,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25445,13 +25447,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>17.05674718752553</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25473,25 +25475,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>86.0606073258317</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>193.881550973544</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25591,16 +25593,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W41" t="n">
-        <v>318.0899692773254</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25719,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>85.44071356467506</v>
       </c>
       <c r="H42" t="n">
-        <v>64.73603676567345</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25825,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>387.6743356562363</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,22 +25912,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25998,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>79.38938919825318</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373861.5131954981</v>
+        <v>373861.5131954982</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373861.5131954981</v>
+        <v>373861.5131954982</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373861.513195498</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373861.5131954981</v>
+        <v>373861.5131954982</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373861.5131954981</v>
+        <v>373861.5131954982</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354954.6941285966</v>
+        <v>354954.6941285963</v>
       </c>
     </row>
     <row r="16">
@@ -26326,7 +26328,7 @@
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641654</v>
@@ -26344,10 +26346,10 @@
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
+        <v>207700.8406641655</v>
+      </c>
+      <c r="N2" t="n">
         <v>207700.8406641654</v>
-      </c>
-      <c r="N2" t="n">
-        <v>207700.8406641655</v>
       </c>
       <c r="O2" t="n">
         <v>197197.0522936645</v>
@@ -26433,10 +26435,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
         <v>179.5324977039669</v>
@@ -26522,10 +26524,10 @@
         <v>109462.5789352585</v>
       </c>
       <c r="C6" t="n">
-        <v>178336.3355169484</v>
+        <v>178336.3355169483</v>
       </c>
       <c r="D6" t="n">
-        <v>178336.3355169483</v>
+        <v>178336.3355169482</v>
       </c>
       <c r="E6" t="n">
         <v>184547.7557928838</v>
@@ -26549,10 +26551,10 @@
         <v>192867.6394026998</v>
       </c>
       <c r="L6" t="n">
-        <v>192867.6394026998</v>
+        <v>192867.6394026997</v>
       </c>
       <c r="M6" t="n">
-        <v>192867.6394026998</v>
+        <v>192867.6394026999</v>
       </c>
       <c r="N6" t="n">
         <v>192867.6394026998</v>
@@ -26561,7 +26563,7 @@
         <v>184547.7557928838</v>
       </c>
       <c r="P6" t="n">
-        <v>184547.7557928839</v>
+        <v>184547.7557928838</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.8832067536344</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,10 +27435,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>19.14461131358425</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5814812455281</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>14.95552117266973</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>183.3077238694049</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>192.5827573459887</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27710,13 +27712,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.322503269695247</v>
+        <v>92.46572744736817</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>180.6334679913762</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>4.958045132125505</v>
@@ -27895,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>46.84629150085968</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27992,10 +27994,10 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>237.7515124663191</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>86.46950422323975</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344609</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35498,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>43.28534947792188</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1458831.714316723</v>
+        <v>1389224.732394881</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5854568.843987873</v>
+        <v>5909811.7279592</v>
       </c>
     </row>
     <row r="11">
@@ -664,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.16030022554292</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.4261177940757</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>126.0005806582306</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>19.76971678912829</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>186.2783301735246</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>204.4993614069768</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>62.13484214871502</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>119.3034809802377</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>110.9174757594852</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I11" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>116.2794351611293</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>124.3469240739945</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -1709,7 +1709,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
     </row>
     <row r="19">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.44497723232986</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>68.3854176612075</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>87.86737129411912</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.162665399307</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2809,7 +2809,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>145.4555638731248</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
     </row>
     <row r="34">
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T35" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F36" t="n">
-        <v>105.6152911330824</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>59.00860506755218</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>51.90280359853558</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>453.0030327087026</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>453.0030327087026</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>245.4092504478133</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>245.4092504478133</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>37.81546818692397</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0030327087026</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>453.0030327087026</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.0030327087026</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>16.44142755506243</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>61.19242108896862</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>61.19242108896862</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.19242108896862</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.1562919452729</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>459.1562919452729</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>459.1562919452729</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1562919452729</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>251.5625096843836</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1954256661855</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>127.464600248801</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>239.4925204373003</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>453.0030327087026</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>453.0030327087026</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>345.2979091154422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>137.7041268545529</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>137.7041268545529</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.81546818692397</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C11" t="n">
-        <v>37.81546818692397</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D11" t="n">
-        <v>37.81546818692397</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E11" t="n">
-        <v>37.81546818692397</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F11" t="n">
-        <v>37.81546818692397</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G11" t="n">
-        <v>37.81546818692397</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H11" t="n">
-        <v>37.81546818692397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>37.81546818692397</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>37.81546818692397</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>37.81546818692397</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X11" t="n">
-        <v>37.81546818692397</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.81546818692397</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>807.2329312674061</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>633.815586718075</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>431.628992076841</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>224.0352098159517</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5782,13 +5782,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
         <v>506.1786963984129</v>
@@ -5797,7 +5797,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>454.3181732824481</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5949,7 +5949,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>100.4273118130612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6080,7 +6080,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6405,25 +6405,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
         <v>20.03527576299844</v>
@@ -6554,7 +6554,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X30" t="n">
-        <v>542.5454695211354</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>334.7851707561815</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.90796037760316</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6788,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N33" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N33" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W33" t="n">
-        <v>23.90796037760316</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X33" t="n">
-        <v>23.90796037760316</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y33" t="n">
-        <v>23.90796037760316</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6888,7 +6888,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,16 +6961,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
         <v>506.1786963984129</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.0815197256143</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>413.6284904444873</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>264.694080783236</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>480.6742980174409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>331.7398883561897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>331.7398883561897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7356,13 +7356,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>453.0030327087026</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>245.4092504478133</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>37.81546818692397</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V41" t="n">
-        <v>16.44142755506243</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>244.0756638309303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>69.62263454980328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>69.62263454980328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>69.62263454980328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>69.62263454980328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>619.8847831118876</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>619.8847831118876</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>412.2910008509983</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.07469395038575</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,10 +9728,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10202,10 +10202,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I11" t="n">
-        <v>189.315589344863</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23348,7 +23348,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>109.6619469198455</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,16 +23576,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>20.72228831938942</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23597,7 +23597,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>70.26853576158751</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>43.24093381563969</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.2377185449745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>313.5449524110543</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>57.20184109926475</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
-        <v>308.7646895842778</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>145.4824150560939</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24645,7 +24645,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24697,7 +24697,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>60.31742133035263</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,10 +24973,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>132.7629680684941</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>202.1274745670657</v>
       </c>
     </row>
     <row r="34">
@@ -25128,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T35" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F36" t="n">
-        <v>39.45392126030147</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25332,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>17.05674718752553</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>86.0606073258317</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>85.44071356467506</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,25 +25912,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354954.6941285965</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354954.6941285965</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373861.5131954982</v>
+        <v>373861.513195498</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373861.5131954982</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373861.5131954982</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373861.5131954982</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373861.5131954982</v>
+        <v>373861.513195498</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373861.5131954982</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354954.6941285963</v>
+        <v>373861.5131954981</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354954.6941285965</v>
+        <v>373861.513195498</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
@@ -26322,10 +26322,10 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="F2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
@@ -26346,16 +26346,16 @@
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="P2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288691.6857063813</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>288691.6857063813</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>288691.6857063813</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26456,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109462.5789352585</v>
+        <v>128678.1175157371</v>
       </c>
       <c r="C6" t="n">
-        <v>178336.3355169483</v>
+        <v>125168.4550825839</v>
       </c>
       <c r="D6" t="n">
-        <v>178336.3355169482</v>
+        <v>185744.7772692519</v>
       </c>
       <c r="E6" t="n">
-        <v>184547.7557928838</v>
+        <v>180649.6287826594</v>
       </c>
       <c r="F6" t="n">
-        <v>184547.7557928838</v>
+        <v>180649.6287826593</v>
       </c>
       <c r="G6" t="n">
-        <v>183138.5964285327</v>
+        <v>180649.6287826593</v>
       </c>
       <c r="H6" t="n">
-        <v>192867.6394026998</v>
+        <v>180649.6287826593</v>
       </c>
       <c r="I6" t="n">
-        <v>192867.6394026998</v>
+        <v>180649.6287826593</v>
       </c>
       <c r="J6" t="n">
-        <v>139095.1285124904</v>
+        <v>166648.39664238</v>
       </c>
       <c r="K6" t="n">
-        <v>192867.6394026998</v>
+        <v>132392.6758490267</v>
       </c>
       <c r="L6" t="n">
-        <v>192867.6394026997</v>
+        <v>180649.6287826593</v>
       </c>
       <c r="M6" t="n">
-        <v>192867.6394026999</v>
+        <v>180649.6287826593</v>
       </c>
       <c r="N6" t="n">
-        <v>192867.6394026998</v>
+        <v>180649.6287826593</v>
       </c>
       <c r="O6" t="n">
-        <v>184547.7557928838</v>
+        <v>180649.6287826594</v>
       </c>
       <c r="P6" t="n">
-        <v>184547.7557928838</v>
+        <v>180649.6287826593</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>394.1424372895921</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>220.0807858381715</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27478,10 +27478,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.3857409777716</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>126.5814812455281</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>204.5051205979195</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.3077238694049</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>289.3021568569044</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>92.46572744736817</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>65.41665298739503</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="8">
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>46.84629150085968</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>27.26179070270006</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>86.46950422323975</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>34.50357226344609</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37156,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>169.9067907798017</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37627,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>148.1480627106907</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
